--- a/CPUlist.xlsx
+++ b/CPUlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25704"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85DF3E75-3562-43D1-B587-1D219B5E0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25712"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA592BE2-D7D7-4716-867F-22A9C34BCC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="6460" tabRatio="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>세대</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>브로드웰</t>
-  </si>
-  <si>
-    <t>Core i7-5775C</t>
-  </si>
-  <si>
-    <t>Core i5-5675C</t>
   </si>
   <si>
     <t>6세대</t>
@@ -244,24 +238,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,11 +270,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -349,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -401,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="20000000000000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -517,21 +501,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -593,44 +577,40 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.350000000000001"/>
   <cols>
     <col min="2" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -641,20 +621,19 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1"/>
@@ -665,209 +644,196 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+      <c r="C13" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -911,6 +877,7 @@
       <c r="C23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/CPUlist.xlsx
+++ b/CPUlist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25712"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA592BE2-D7D7-4716-867F-22A9C34BCC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57E7E53-769D-4722-BB91-FB9BD9D1C6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18940" windowHeight="6460" tabRatio="188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>Core i7-2600</t>
   </si>
   <si>
-    <t>Core i5-2500K</t>
+    <t>Core i5-2500</t>
   </si>
   <si>
     <t>Core i3-2100</t>
@@ -87,7 +87,7 @@
     <t>Core i7-3770</t>
   </si>
   <si>
-    <t>Core i5-3570K</t>
+    <t>Core i5-3570</t>
   </si>
   <si>
     <t>Core i3-3220</t>
@@ -99,7 +99,7 @@
     <t>하스웰</t>
   </si>
   <si>
-    <t>Core i7-4790K</t>
+    <t>Core i7-4790</t>
   </si>
   <si>
     <t>Core i5-4690</t>
@@ -120,7 +120,7 @@
     <t>스카이레이크</t>
   </si>
   <si>
-    <t>Core i7-6700</t>
+    <t>Core i7-6700K</t>
   </si>
   <si>
     <t>Core i5-6600</t>
@@ -135,7 +135,7 @@
     <t>카비 레이크</t>
   </si>
   <si>
-    <t>Core i7-7700</t>
+    <t>Core i7-7700K</t>
   </si>
   <si>
     <t>Core i5-7600</t>
@@ -153,7 +153,7 @@
     <t>Core i7-8086K</t>
   </si>
   <si>
-    <t>Core i7-8700</t>
+    <t>Core i7-8700K</t>
   </si>
   <si>
     <t>Core i5-8600</t>
@@ -171,7 +171,7 @@
     <t>Core i9-9900KS</t>
   </si>
   <si>
-    <t>Core i7-9700</t>
+    <t>Core i7-9700K</t>
   </si>
   <si>
     <t>Core i5-9600</t>
@@ -333,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="20000000000000000000"/>
+        <a:latin typeface="Calibri Light" panose="21474836470000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -385,7 +385,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="20000000000000000000"/>
+        <a:latin typeface="Calibri" panose="21474836470000000000"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.350000000000001"/>
@@ -877,7 +877,7 @@
       <c r="C23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>